--- a/command.xlsx
+++ b/command.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\尾上太一\Documents\C#\work\master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syalpon\Documents\GITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4078ABD-2535-447B-94D3-0F5E1BFBF4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ECB696-AF94-4918-914E-8DD12F74BD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="465" windowWidth="20475" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="command" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>作業場所</t>
     <rPh sb="0" eb="2">
@@ -288,6 +297,69 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモートリポジトリをコピーしてローカルリポジトリにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時インデックスにはメインブランチが展開される</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>--bare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデックスを持たないリポジトリとしてコピーする。pushやfetchなどの操作のみ可能となる</t>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランチを切り替える。</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clone &lt;URL&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用例</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -296,7 +368,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +386,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
@@ -347,13 +428,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -369,6 +452,268 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9802C8-D9B2-F774-DB8C-EEAEC5E7F377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="1333500"/>
+          <a:ext cx="1905000" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リモートリポジトリ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C961BD-D33D-4B3A-BB49-A9CA5A58B1BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="1333500"/>
+          <a:ext cx="1905000" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ローカル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リポジトリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BB20E1-A98E-2275-CEF2-10436AE53FAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="1690688"/>
+          <a:ext cx="1190625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FC9C95-CD69-4524-9A1C-1AE21F95CAC4}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -936,4 +1281,69 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05383986-21E4-4859-B51F-F58092CB9C25}">
+  <dimension ref="C2:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="3:9" ht="30">
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="30">
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>